--- a/data/IBSC Student Scots 7TGBFA.xlsx
+++ b/data/IBSC Student Scots 7TGBFA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c85ca06803d405f/2017-2019/Documents/RF/IBSC Survey Feedback/Master Dash/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_3F256DD3B426EA298B7A9CCD622C4187695D1AA4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F95CA80B-E4AF-4F82-9344-5FF4CBADEC0E}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_3F256DD3B426EA298B7A9CCD622C4187695D1AA4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D8218EB-D981-47E1-A408-4F2FD7F3C030}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="0" windowWidth="25890" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49280" yWindow="2380" windowWidth="25890" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Node Attributes" sheetId="1" r:id="rId1"/>
@@ -659,16 +659,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="12" max="12" width="11.08203125" customWidth="1"/>
+    <col min="13" max="13" width="6.4140625" customWidth="1"/>
+    <col min="14" max="14" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.4140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.33203125" customWidth="1"/>
+    <col min="17" max="17" width="44.83203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="21.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -775,7 +781,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -882,7 +888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -989,7 +995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1096,7 +1102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1203,7 +1209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1313,7 +1319,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:AI6" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:AI6 A1:K1 M1:N1 P1:W1 Y1:AI1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1324,9 +1330,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -1340,7 +1346,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1354,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1382,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1396,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1410,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1424,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -1438,7 +1444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1452,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1466,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1480,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -1494,7 +1500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1508,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1522,7 +1528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1536,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -1550,7 +1556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -1564,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -1578,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -1592,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -1606,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -1620,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -1634,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -1648,7 +1654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -1662,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -1676,7 +1682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -1704,9 +1710,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1734,7 +1740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1748,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1762,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1776,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1790,7 +1796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1804,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -1818,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1832,7 +1838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1846,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1860,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -1874,7 +1880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1888,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1902,7 +1908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1916,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -1930,7 +1936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -1944,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -1958,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -1972,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -1986,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -2000,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -2014,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -2028,7 +2034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -2042,7 +2048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -2056,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -2084,9 +2090,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -2100,7 +2106,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2114,7 +2120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -2128,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -2142,7 +2148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2156,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2170,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -2184,7 +2190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -2198,7 +2204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -2212,7 +2218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -2226,7 +2232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -2240,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -2254,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -2268,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -2282,7 +2288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -2296,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -2310,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -2324,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -2338,7 +2344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -2352,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -2366,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -2380,7 +2386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -2394,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -2408,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -2422,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -2436,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>75</v>
       </c>
